--- a/시장분석용_정보/시장분석용_4579041000.xlsx
+++ b/시장분석용_정보/시장분석용_4579041000.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
-  <si>
-    <t>중복체크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>sim_cd</t>
   </si>
@@ -158,54 +155,6 @@
   </si>
   <si>
     <t>IC_1099_RT</t>
-  </si>
-  <si>
-    <t>LIFE_01_RT</t>
-  </si>
-  <si>
-    <t>LIFE_02_RT</t>
-  </si>
-  <si>
-    <t>LIFE_03_RT</t>
-  </si>
-  <si>
-    <t>LIFE_04_RT</t>
-  </si>
-  <si>
-    <t>LIFE_05_RT</t>
-  </si>
-  <si>
-    <t>LIFE_06_RT</t>
-  </si>
-  <si>
-    <t>FTJB_HUWF_RT</t>
-  </si>
-  <si>
-    <t>STUD_RT</t>
-  </si>
-  <si>
-    <t>SCTY_EAR_H_RT</t>
-  </si>
-  <si>
-    <t>GDS_01_RT</t>
-  </si>
-  <si>
-    <t>GDS_02_RT</t>
-  </si>
-  <si>
-    <t>GDS_03_RT</t>
-  </si>
-  <si>
-    <t>REVISIT_RT</t>
-  </si>
-  <si>
-    <t>FREQ_RT</t>
-  </si>
-  <si>
-    <t>202004 4048204640</t>
-  </si>
-  <si>
-    <t>202005 4048204640</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM2MSMkMSMkNiMkOTkkNTgxMzUxIzExIyQxIyQzIyQ4OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
@@ -578,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:AV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,151 +675,106 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>5756</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>202004</v>
       </c>
       <c r="E2">
-        <v>202004</v>
+        <v>2020</v>
       </c>
       <c r="F2">
-        <v>2020</v>
-      </c>
-      <c r="G2">
         <v>4048204640</v>
       </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
       <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>4579041000</v>
       </c>
       <c r="J2">
-        <v>4579041000</v>
-      </c>
-      <c r="K2">
         <v>503.9757575757576</v>
       </c>
-      <c r="L2" t="s">
-        <v>68</v>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>9012460</v>
       </c>
       <c r="M2">
-        <v>9012460</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>901970</v>
       </c>
       <c r="O2">
-        <v>901970</v>
+        <v>100</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>100</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>100</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -903,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>66.13</v>
       </c>
       <c r="AS2">
-        <v>66.13</v>
+        <v>33.87</v>
       </c>
       <c r="AT2">
-        <v>33.87</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -917,240 +821,150 @@
       <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>100</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>66.13</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>100</v>
-      </c>
-      <c r="BI2">
-        <v>100</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>7579</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>202005</v>
       </c>
       <c r="E3">
-        <v>202005</v>
+        <v>2020</v>
       </c>
       <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="G3">
         <v>4048204640</v>
       </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
       <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>4579041000</v>
       </c>
       <c r="J3">
-        <v>4579041000</v>
-      </c>
-      <c r="K3">
         <v>503.9757575757576</v>
       </c>
-      <c r="L3" t="s">
-        <v>68</v>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <v>6407012</v>
       </c>
       <c r="M3">
-        <v>6407012</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>599200</v>
       </c>
       <c r="O3">
-        <v>599200</v>
+        <v>47.31</v>
       </c>
       <c r="P3">
+        <v>52.69</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>47.31</v>
       </c>
-      <c r="Q3">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>52.69</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>52.69</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>47.31</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>52.69</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>100</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>52.69</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>47.31</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
       <c r="AT3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>52.69</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>47.31</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>52.69</v>
-      </c>
-      <c r="BI3">
-        <v>52.69</v>
-      </c>
-      <c r="BJ3">
-        <v>50</v>
-      </c>
-      <c r="BK3">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4579041000.xlsx
+++ b/시장분석용_정보/시장분석용_4579041000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>5756</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202004</v>
@@ -696,10 +600,10 @@
         <v>4048204640</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4579041000</v>
@@ -708,7 +612,7 @@
         <v>503.9757575757576</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>9012460</v>
@@ -720,11 +624,11 @@
         <v>901970</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
@@ -732,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -750,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -759,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>66.13</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>33.87</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -771,66 +675,18 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>100</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>66.13</v>
-      </c>
-      <c r="AS2">
-        <v>33.87</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>7579</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202005</v>
@@ -842,10 +698,10 @@
         <v>4048204640</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4579041000</v>
@@ -854,7 +710,7 @@
         <v>503.9757575757576</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>6407012</v>
@@ -866,7 +722,7 @@
         <v>599200</v>
       </c>
       <c r="O3">
-        <v>47.31</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>52.69</v>
@@ -875,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>47.31</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -884,32 +740,32 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>47.31</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>52.69</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>100</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
@@ -917,54 +773,6 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>52.69</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>47.31</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>100</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
         <v>0</v>
       </c>
     </row>
